--- a/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table5.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89474CB1-F5AE-0548-9B81-EA6D9ED49A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94929F2-08D8-CB45-B3C2-853AA8EC1484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,9 +38,6 @@
     <t>25 to 39 feet</t>
   </si>
   <si>
-    <t>40 to G4 feet</t>
-  </si>
-  <si>
     <t>65 to 84 feet</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>40 to 64 feet</t>
   </si>
 </sst>
 </file>
@@ -71,7 +71,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -138,14 +138,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -461,13 +461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14"/>
     <col min="2" max="4" width="9.5" bestFit="1" customWidth="1"/>
@@ -477,7 +477,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -486,27 +486,27 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5">
         <v>1021</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6">
         <v>1267</v>
@@ -564,7 +564,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
